--- a/DB Idea.xlsx
+++ b/DB Idea.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ETEC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DF50B0-AC0F-4C95-9FB9-EAA0B51FCE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C69C3A8-AF42-429C-8B7D-F1469CD3D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumno" sheetId="1" r:id="rId1"/>
     <sheet name="Rol" sheetId="2" r:id="rId2"/>
     <sheet name="Materia" sheetId="3" r:id="rId3"/>
     <sheet name="Profesor" sheetId="4" r:id="rId4"/>
-    <sheet name="Relacion Prof-Materia" sheetId="5" r:id="rId5"/>
-    <sheet name="Relacion Alum-Materia" sheetId="6" r:id="rId6"/>
+    <sheet name="Prof-Materia" sheetId="5" r:id="rId5"/>
+    <sheet name="Alum-Materia" sheetId="6" r:id="rId6"/>
     <sheet name="Pagina" sheetId="7" r:id="rId7"/>
     <sheet name="Contenido" sheetId="11" r:id="rId8"/>
-    <sheet name="Relacion Pag-Contenido" sheetId="10" r:id="rId9"/>
+    <sheet name="Pag-Contenido" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>Usuario</t>
   </si>
@@ -50,72 +50,24 @@
     <t>RolFK</t>
   </si>
   <si>
-    <t>Anio</t>
-  </si>
-  <si>
     <t>Rol</t>
   </si>
   <si>
     <t>idRol</t>
   </si>
   <si>
-    <t>AnioFK</t>
-  </si>
-  <si>
     <t>MateriaFK</t>
   </si>
   <si>
-    <t>b.bastan</t>
-  </si>
-  <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>Bastan</t>
-  </si>
-  <si>
-    <t>Est elect</t>
-  </si>
-  <si>
-    <t>l.perinetti</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Perinetti</t>
-  </si>
-  <si>
-    <t>Est infor</t>
-  </si>
-  <si>
-    <t>p.rofesor</t>
-  </si>
-  <si>
-    <t>Pepe</t>
-  </si>
-  <si>
-    <t>Rofesor</t>
-  </si>
-  <si>
     <t>idMateria</t>
   </si>
   <si>
     <t>NombreMat</t>
   </si>
   <si>
-    <t>Lengua</t>
-  </si>
-  <si>
     <t>idRelacion</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>ProfesorFK</t>
   </si>
   <si>
@@ -131,15 +83,6 @@
     <t>NomPag</t>
   </si>
   <si>
-    <t>Lengua 5I</t>
-  </si>
-  <si>
-    <t>Est A</t>
-  </si>
-  <si>
-    <t>Est B</t>
-  </si>
-  <si>
     <t>idContenido</t>
   </si>
   <si>
@@ -164,42 +107,55 @@
     <t>False</t>
   </si>
   <si>
-    <t>Img_Fun_cuadratica</t>
-  </si>
-  <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>C:\Ubicacion\De\Ejemplo\(Aca estaria el nombre)</t>
-  </si>
-  <si>
-    <t>Tarea 3</t>
-  </si>
-  <si>
-    <t>Tarea</t>
-  </si>
-  <si>
-    <t>Cuestionario</t>
-  </si>
-  <si>
-    <t>Tipos de redes</t>
-  </si>
-  <si>
-    <t>Idk</t>
-  </si>
-  <si>
-    <t>Ubicación imaginaria en el servidor</t>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>AñoFK</t>
+  </si>
+  <si>
+    <t>Tiempo lim</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>Rol:A</t>
+  </si>
+  <si>
+    <t>Profesor:A</t>
+  </si>
+  <si>
+    <t>Materia:C</t>
+  </si>
+  <si>
+    <t>Materia:A</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>https://disenowebakus.net/tipos-de-datos-mysql.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,6 +167,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -222,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -230,524 +194,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF85FFBC"/>
+      <color rgb="FFFF8B8B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -957,10 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O1000"/>
+  <sheetPr>
+    <tabColor rgb="FFFF8B8B"/>
+  </sheetPr>
+  <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -968,104 +442,69 @@
     <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="16">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="13">
-        <v>5</v>
-      </c>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
-        <v>2</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18">
-        <v>3</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="26">
-        <v>4</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25"/>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2055,57 +1494,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFF8B8B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:C6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="19" t="s">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="20">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
-        <v>2</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="32">
-        <v>4</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2114,31 +1532,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFF8B8B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>23</v>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2149,44 +1573,45 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFF8B8B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2196,58 +1621,50 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
+    <tabColor rgb="FF85FFBC"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:E4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="23" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29">
-        <v>2</v>
-      </c>
-      <c r="C4" s="25">
-        <v>1</v>
-      </c>
-      <c r="D4" s="26">
-        <v>2</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2257,155 +1674,43 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
+    <tabColor rgb="FF85FFBC"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:E11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="23" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28">
-        <v>2</v>
-      </c>
-      <c r="C4" s="21">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28">
-        <v>3</v>
-      </c>
-      <c r="C5" s="21">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28">
-        <v>4</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28">
-        <v>5</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28">
-        <v>6</v>
-      </c>
-      <c r="C8" s="21">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28">
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="21">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28">
-        <v>8</v>
-      </c>
-      <c r="C10" s="21">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29">
-        <v>9</v>
-      </c>
-      <c r="C11" s="25">
-        <v>2</v>
-      </c>
-      <c r="D11" s="26">
-        <v>6</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2415,114 +1720,103 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253FD636-69A8-4BF6-8EE4-7F9E834E23EA}">
-  <dimension ref="B1:E3"/>
+  <sheetPr>
+    <tabColor rgb="FFFF8B8B"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="35" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="41">
-        <v>1</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="42">
-        <v>5</v>
-      </c>
-      <c r="E3" s="43">
-        <v>2</v>
-      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B8D097-54F1-4222-BA76-09CDA35066C9}">
-  <dimension ref="B1:E5"/>
+  <sheetPr>
+    <tabColor rgb="FFFF8B8B"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="35" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="28">
-        <v>1</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="28">
-        <v>2</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29">
-        <v>3</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2531,96 +1825,99 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E3C261-9682-44EB-92CF-E1B9B33F9DB9}">
-  <dimension ref="B2:E7"/>
+  <sheetPr>
+    <tabColor rgb="FF85FFBC"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>41</v>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
